--- a/experiments/linguistic/train.0.100/1-gram-weights.xlsx
+++ b/experiments/linguistic/train.0.100/1-gram-weights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02652678905957287</v>
+        <v>0.03278159063383125</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01955788684900712</v>
+        <v>0.01978199434800161</v>
       </c>
     </row>
     <row r="4">
@@ -479,62 +479,62 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01820906706631697</v>
+        <v>0.01937828017763423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>stupid</t>
+          <t>worse</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01588609966279506</v>
+        <v>0.01485668146951958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>worse</t>
+          <t>waste</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0157362307980517</v>
+        <v>0.0147759386354461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>waste</t>
+          <t>horrible</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01543649306856501</v>
+        <v>0.01340331045619701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>horrible</t>
+          <t>ridiculous</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01251405020606969</v>
+        <v>0.01057731126362535</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01236418134132634</v>
+        <v>0.01057731126362535</v>
       </c>
     </row>
     <row r="10">
@@ -557,2662 +557,2545 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009741476208317721</v>
+        <v>0.0100928542591845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ridiculous</t>
+          <t>gore</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009216935181715999</v>
+        <v>0.009527654420670165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>avoid</t>
+          <t>attempt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008692394155114275</v>
+        <v>0.009527654420670165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>silly</t>
+          <t>tried</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00846759085799925</v>
+        <v>0.009366168752523213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>sorry</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008242787560884226</v>
+        <v>0.007993540573274121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>dull</t>
+          <t>poorly</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007643312101910828</v>
+        <v>0.007993540573274121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>badly</t>
+          <t>bunch</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007568377669539154</v>
+        <v>0.007912797739200646</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>sorry</t>
+          <t>avoid</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007418508804795804</v>
+        <v>0.007832054905127169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>clich</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007268639940052454</v>
+        <v>0.00742834073475979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>poorly</t>
+          <t>unless</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" t="n">
-        <v>0.007268639940052454</v>
+        <v>0.00742834073475979</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>unless</t>
+          <t>dull</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C20" t="n">
-        <v>0.007193705507680779</v>
+        <v>0.007347597900686314</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>wasted</t>
+          <t>mess</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007118771075309105</v>
+        <v>0.006863140896245458</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>clich</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006819033345822406</v>
+        <v>0.006863140896245458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>lame</t>
+          <t>joke</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006594230048707381</v>
+        <v>0.006782398062171982</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>mess</t>
+          <t>rent</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006519295616335706</v>
+        <v>0.00662091239402503</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>imdb</t>
+          <t>dumb</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006369426751592357</v>
+        <v>0.006540169559951554</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>sequel</t>
+          <t>predictable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006369426751592357</v>
+        <v>0.006540169559951554</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>okay</t>
+          <t>fake</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006219557886849007</v>
+        <v>0.006378683891804602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>dumb</t>
+          <t>badly</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006219557886849007</v>
+        <v>0.006297941057731127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>minute</t>
+          <t>filmmakers</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006144623454477333</v>
+        <v>0.006297941057731127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>slasher</t>
+          <t>pointless</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>0.006144623454477333</v>
+        <v>0.006136455389584175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>garbage</t>
+          <t>wasted</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006069689022105657</v>
+        <v>0.005974969721437223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>possibly</t>
+          <t>zombie</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005994754589733983</v>
+        <v>0.005894226887363747</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>pointless</t>
+          <t>garbage</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>0.005994754589733983</v>
+        <v>0.005651998385143318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>sounds</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>0.005919820157362308</v>
+        <v>0.005651998385143318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>laughable</t>
+          <t>fails</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005919820157362308</v>
+        <v>0.005651998385143318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>bored</t>
+          <t>lame</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C36" t="n">
-        <v>0.005919820157362308</v>
+        <v>0.005571255551069842</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>move</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
-        <v>0.005695016860247284</v>
+        <v>0.005490512716996366</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>otherwise</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005695016860247284</v>
+        <v>0.00540976988292289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>painful</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>0.005545147995503934</v>
+        <v>0.00540976988292289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>nudity</t>
+          <t>weird</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C40" t="n">
-        <v>0.005545147995503934</v>
+        <v>0.00540976988292289</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>decided</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C41" t="n">
-        <v>0.005545147995503934</v>
+        <v>0.005248284214775939</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>joke</t>
+          <t>spent</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005395279130760585</v>
+        <v>0.005167541380702463</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>zombie</t>
+          <t>bored</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C43" t="n">
-        <v>0.005395279130760585</v>
+        <v>0.005167541380702463</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>reviews</t>
+          <t>write</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005395279130760585</v>
+        <v>0.005167541380702463</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>whatever</t>
+          <t>begin</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C45" t="n">
-        <v>0.005320344698388909</v>
+        <v>0.005167541380702463</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>alien</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00517047583364556</v>
+        <v>0.005167541380702463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00517047583364556</v>
+        <v>0.005167541380702463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>sadly</t>
+          <t>cover</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005020606968902211</v>
+        <v>0.005086798546628987</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>hardly</t>
+          <t>incredibly</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004945672536530536</v>
+        <v>0.005006055712555511</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>fails</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004945672536530536</v>
+        <v>0.005006055712555511</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>trash</t>
+          <t>store</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C51" t="n">
-        <v>0.004945672536530536</v>
+        <v>0.005006055712555511</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>pathetic</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C52" t="n">
-        <v>0.004870738104158861</v>
+        <v>0.005006055712555511</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>rent</t>
+          <t>zombies</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C53" t="n">
-        <v>0.004870738104158861</v>
+        <v>0.005006055712555511</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>plain</t>
+          <t>barely</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C54" t="n">
-        <v>0.004870738104158861</v>
+        <v>0.005006055712555511</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>filmmakers</t>
+          <t>somewhere</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C55" t="n">
-        <v>0.004870738104158861</v>
+        <v>0.004925312878482035</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>flat</t>
+          <t>cheesy</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" t="n">
-        <v>0.004720869239415512</v>
+        <v>0.004925312878482035</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>ended</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" t="n">
-        <v>0.004720869239415512</v>
+        <v>0.004925312878482035</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>fake</t>
+          <t>cgi</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C58" t="n">
-        <v>0.004720869239415512</v>
+        <v>0.004844570044408559</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>write</t>
+          <t>slasher</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C59" t="n">
-        <v>0.004720869239415512</v>
+        <v>0.004844570044408559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>writers</t>
+          <t>lee</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" t="n">
-        <v>0.004571000374672162</v>
+        <v>0.004844570044408559</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>plain</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004571000374672162</v>
+        <v>0.004844570044408559</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>yeah</t>
+          <t>gun</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" t="n">
-        <v>0.004496065942300487</v>
+        <v>0.004763827210335083</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>manages</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" t="n">
-        <v>0.004496065942300487</v>
+        <v>0.004683084376261607</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>crazy</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" t="n">
-        <v>0.004496065942300487</v>
+        <v>0.004683084376261607</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>excuse</t>
+          <t>steve</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C65" t="n">
-        <v>0.004496065942300487</v>
+        <v>0.004602341542188131</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>laughable</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C66" t="n">
-        <v>0.004496065942300487</v>
+        <v>0.004602341542188131</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>van</t>
+          <t>spoilers</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C67" t="n">
-        <v>0.004421131509928812</v>
+        <v>0.004602341542188131</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>woods</t>
+          <t>writers</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C68" t="n">
-        <v>0.004421131509928812</v>
+        <v>0.004602341542188131</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>shoot</t>
+          <t>bother</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004346197077557137</v>
+        <v>0.004602341542188131</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>sadly</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C70" t="n">
-        <v>0.004346197077557137</v>
+        <v>0.004521598708114655</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>cop</t>
+          <t>explain</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C71" t="n">
-        <v>0.004346197077557137</v>
+        <v>0.004521598708114655</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>expecting</t>
+          <t>pathetic</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C72" t="n">
-        <v>0.004346197077557137</v>
+        <v>0.004521598708114655</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>paid</t>
+          <t>nudity</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" t="n">
-        <v>0.004271262645185463</v>
+        <v>0.004521598708114655</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>excuse</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" t="n">
-        <v>0.004271262645185463</v>
+        <v>0.004440855874041178</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>forward</t>
+          <t>missing</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" t="n">
-        <v>0.004271262645185463</v>
+        <v>0.004440855874041178</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>stick</t>
+          <t>whatever</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C76" t="n">
-        <v>0.004271262645185463</v>
+        <v>0.004440855874041178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>christmas</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C77" t="n">
-        <v>0.004271262645185463</v>
+        <v>0.004440855874041178</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>pay</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" t="n">
-        <v>0.004196328212813788</v>
+        <v>0.004440855874041178</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>appear</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" t="n">
-        <v>0.004196328212813788</v>
+        <v>0.004440855874041178</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>cover</t>
+          <t>shame</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C80" t="n">
-        <v>0.004196328212813788</v>
+        <v>0.004360113039967703</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>producers</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C81" t="n">
-        <v>0.004196328212813788</v>
+        <v>0.004360113039967703</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>attempts</t>
+          <t>villain</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C82" t="n">
-        <v>0.004121393780442113</v>
+        <v>0.004360113039967703</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>store</t>
+          <t>neither</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" t="n">
-        <v>0.004121393780442113</v>
+        <v>0.004360113039967703</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>k</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C84" t="n">
-        <v>0.004121393780442113</v>
+        <v>0.004360113039967703</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>honestly</t>
+          <t>list</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85" t="n">
-        <v>0.004121393780442113</v>
+        <v>0.004360113039967703</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>channel</t>
+          <t>trash</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C86" t="n">
-        <v>0.004121393780442113</v>
+        <v>0.004279370205894227</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>ground</t>
+          <t>rip</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C87" t="n">
-        <v>0.004121393780442113</v>
+        <v>0.004279370205894227</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>nowhere</t>
+          <t>porn</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C88" t="n">
-        <v>0.004046459348070438</v>
+        <v>0.004279370205894227</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>gay</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004046459348070438</v>
+        <v>0.004279370205894227</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>bother</t>
+          <t>biggest</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C90" t="n">
-        <v>0.004046459348070438</v>
+        <v>0.004279370205894227</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>cheesy</t>
+          <t>result</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C91" t="n">
-        <v>0.004046459348070438</v>
+        <v>0.004279370205894227</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>vampire</t>
+          <t>van</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C92" t="n">
-        <v>0.004046459348070438</v>
+        <v>0.004198627371820751</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>wooden</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C93" t="n">
-        <v>0.003971524915698764</v>
+        <v>0.004198627371820751</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>worked</t>
+          <t>stick</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" t="n">
-        <v>0.003971524915698764</v>
+        <v>0.004198627371820751</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>spent</t>
+          <t>random</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" t="n">
-        <v>0.003971524915698764</v>
+        <v>0.004198627371820751</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>wrote</t>
+          <t>nowhere</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" t="n">
-        <v>0.003971524915698764</v>
+        <v>0.004198627371820751</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>macbeth</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" t="n">
-        <v>0.003971524915698764</v>
+        <v>0.004198627371820751</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>amusing</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" t="n">
-        <v>0.003896590483327089</v>
+        <v>0.004117884537747275</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>disappointing</t>
+          <t>alive</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C99" t="n">
-        <v>0.003896590483327089</v>
+        <v>0.004117884537747275</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>cartoon</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C100" t="n">
-        <v>0.003896590483327089</v>
+        <v>0.004117884537747275</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>waiting</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" t="n">
-        <v>0.003896590483327089</v>
+        <v>0.004117884537747275</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>biggest</t>
+          <t>college</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" t="n">
-        <v>0.003896590483327089</v>
+        <v>0.004117884537747275</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>sucks</t>
+          <t>honestly</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C103" t="n">
-        <v>0.003896590483327089</v>
+        <v>0.004117884537747275</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>accent</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>51</v>
       </c>
       <c r="C104" t="n">
-        <v>0.003821656050955414</v>
+        <v>0.004117884537747275</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>revenge</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>51</v>
       </c>
       <c r="C105" t="n">
-        <v>0.003821656050955414</v>
+        <v>0.004117884537747275</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C106" t="n">
-        <v>0.003821656050955414</v>
+        <v>0.004037141703673799</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>supposedly</t>
+          <t>shoot</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C107" t="n">
-        <v>0.003821656050955414</v>
+        <v>0.004037141703673799</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>makers</t>
+          <t>million</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C108" t="n">
-        <v>0.003821656050955414</v>
+        <v>0.003956398869600323</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>barely</t>
+          <t>considering</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C109" t="n">
-        <v>0.003821656050955414</v>
+        <v>0.003956398869600323</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>throw</t>
+          <t>entirely</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C110" t="n">
-        <v>0.003821656050955414</v>
+        <v>0.003956398869600323</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>victims</t>
+          <t>ed</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C111" t="n">
-        <v>0.003746721618583739</v>
+        <v>0.003956398869600323</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>wooden</t>
+          <t>attempts</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C112" t="n">
-        <v>0.003746721618583739</v>
+        <v>0.003956398869600323</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>joe</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
-        <v>0.003746721618583739</v>
+        <v>0.003875656035526847</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>makers</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C114" t="n">
-        <v>0.003746721618583739</v>
+        <v>0.003875656035526847</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>hoping</t>
+          <t>supposedly</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C115" t="n">
-        <v>0.003746721618583739</v>
+        <v>0.003875656035526847</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>hey</t>
+          <t>mistake</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C116" t="n">
-        <v>0.003746721618583739</v>
+        <v>0.003875656035526847</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>producer</t>
+          <t>wrote</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
-        <v>0.003746721618583739</v>
+        <v>0.003875656035526847</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>villain</t>
+          <t>animal</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C118" t="n">
-        <v>0.003746721618583739</v>
+        <v>0.003875656035526847</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>mentioned</t>
+          <t>yeah</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C119" t="n">
-        <v>0.003671787186212065</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>disappointment</t>
+          <t>trailer</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C120" t="n">
-        <v>0.003671787186212065</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>constantly</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C121" t="n">
-        <v>0.003671787186212065</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>military</t>
+          <t>giant</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C122" t="n">
-        <v>0.003671787186212065</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>accent</t>
+          <t>aside</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C123" t="n">
-        <v>0.003671787186212065</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>thrown</t>
+          <t>utterly</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C124" t="n">
-        <v>0.003671787186212065</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>suppose</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C125" t="n">
-        <v>0.003671787186212065</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>ideas</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C126" t="n">
-        <v>0.003671787186212065</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>producers</t>
+          <t>hardly</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C127" t="n">
-        <v>0.00359685275384039</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>forced</t>
+          <t>cartoon</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C128" t="n">
-        <v>0.00359685275384039</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>painful</t>
+          <t>control</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C129" t="n">
-        <v>0.00359685275384039</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C130" t="n">
-        <v>0.00359685275384039</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>camp</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C131" t="n">
-        <v>0.00359685275384039</v>
+        <v>0.003794913201453371</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>holes</t>
+          <t>flat</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C132" t="n">
-        <v>0.00359685275384039</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>clothes</t>
+          <t>spend</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C133" t="n">
-        <v>0.003521918321468715</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>christian</t>
+          <t>value</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C134" t="n">
-        <v>0.003521918321468715</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>hoping</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C135" t="n">
-        <v>0.003521918321468715</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>disappointment</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C136" t="n">
-        <v>0.003521918321468715</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>alien</t>
+          <t>ugly</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C137" t="n">
-        <v>0.003521918321468715</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>throw</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C138" t="n">
-        <v>0.003521918321468715</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>break</t>
+          <t>rubbish</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>46</v>
       </c>
       <c r="C139" t="n">
-        <v>0.00344698388909704</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>ghost</t>
+          <t>loud</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>46</v>
       </c>
       <c r="C140" t="n">
-        <v>0.00344698388909704</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>ended</t>
+          <t>consider</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>46</v>
       </c>
       <c r="C141" t="n">
-        <v>0.00344698388909704</v>
+        <v>0.003714170367379895</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>appear</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
-        <v>0.00344698388909704</v>
+        <v>0.003633427533306419</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>zombies</t>
+          <t>pick</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
-        <v>0.00344698388909704</v>
+        <v>0.003633427533306419</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>unbelievable</t>
+          <t>jerry</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
-        <v>0.00344698388909704</v>
+        <v>0.003633427533306419</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>somewhere</t>
+          <t>r</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
-        <v>0.00344698388909704</v>
+        <v>0.003633427533306419</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>drive</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>45</v>
       </c>
       <c r="C146" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003633427533306419</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>giant</t>
+          <t>unbelievable</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>45</v>
       </c>
       <c r="C147" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003633427533306419</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>ghost</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>45</v>
       </c>
       <c r="C148" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003633427533306419</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>redeeming</t>
+          <t>anti</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>45</v>
       </c>
       <c r="C149" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003633427533306419</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>names</t>
+          <t>disaster</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C150" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003552684699232943</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>steve</t>
+          <t>folks</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C151" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003552684699232943</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>super</t>
+          <t>speak</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C152" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003552684699232943</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C153" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003552684699232943</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>decide</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C154" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003552684699232943</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>whatsoever</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C155" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003552684699232943</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>finish</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C156" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>aside</t>
+          <t>p</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C157" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>brain</t>
+          <t>disappointing</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C158" t="n">
-        <v>0.003372049456725365</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>army</t>
+          <t>happening</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C159" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>freddy</t>
+          <t>hey</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C160" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>kills</t>
+          <t>missed</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C161" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>tough</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C162" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>sick</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C163" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>personally</t>
+          <t>nobody</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C164" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>appeared</t>
+          <t>gang</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C165" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003471941865159467</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>suppose</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C166" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003391199031085991</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>producer</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C167" t="n">
-        <v>0.003297115024353691</v>
+        <v>0.003391199031085991</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>confusing</t>
+          <t>boyfriend</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C168" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003391199031085991</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>nobody</t>
+          <t>arthur</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C169" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003391199031085991</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>bottom</t>
+          <t>bizarre</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C170" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003391199031085991</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>wondering</t>
+          <t>spoiler</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C171" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003391199031085991</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>lighting</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C172" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003310456197012515</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>decides</t>
+          <t>exception</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C173" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003310456197012515</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>earlier</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C174" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003310456197012515</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>pacing</t>
+          <t>sucks</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C175" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003310456197012515</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>dies</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C176" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003310456197012515</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>manages</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C177" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003310456197012515</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>motion</t>
+          <t>everybody</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C178" t="n">
-        <v>0.003222180591982016</v>
+        <v>0.003310456197012515</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>meaning</t>
+          <t>explanation</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C179" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003310456197012515</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>nightmare</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C180" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>considering</t>
+          <t>sucked</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C181" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>kills</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C182" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>seconds</t>
+          <t>race</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C183" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C184" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>bland</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C185" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>chase</t>
+          <t>pain</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C186" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>wow</t>
+          <t>seagal</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C187" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>spend</t>
+          <t>logic</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C188" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>shooting</t>
+          <t>naked</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C189" t="n">
-        <v>0.003147246159610341</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>victims</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C190" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>anne</t>
+          <t>rented</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C191" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>explained</t>
+          <t>prison</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C192" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>scott</t>
+          <t>ex</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C193" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>utterly</t>
+          <t>na</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C194" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003229713362939039</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>cult</t>
+          <t>stuck</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C195" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>rubbish</t>
+          <t>aliens</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C196" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>creature</t>
+          <t>jesus</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C197" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>sheriff</t>
+          <t>notice</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C198" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>pain</t>
+          <t>acts</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C199" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>rented</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C200" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>boyfriend</t>
+          <t>fell</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C201" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>gang</t>
+          <t>lets</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C202" t="n">
-        <v>0.003072311727238666</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>created</t>
+          <t>drugs</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C203" t="n">
-        <v>0.002997377294866991</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>mouth</t>
+          <t>ii</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C204" t="n">
-        <v>0.002997377294866991</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>besides</t>
+          <t>walking</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C205" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>40</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>ex</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>40</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>indian</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>40</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>track</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>40</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>race</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>40</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>beat</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>40</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>mistake</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>40</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>40</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.002997377294866991</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>naked</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>40</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.002997377294866991</v>
+        <v>0.003148970528865563</v>
       </c>
     </row>
   </sheetData>
@@ -3226,7 +3109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3249,313 +3132,313 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>favorite</t>
+          <t>oscar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01463684065175366</v>
+        <v>0.00971051667277391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>supporting</t>
+          <t>romantic</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008469115345668785</v>
+        <v>0.008794430194210334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>batman</t>
+          <t>release</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008285004142502071</v>
+        <v>0.007969952363503115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>fantastic</t>
+          <t>superb</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008192948540918715</v>
+        <v>0.007969952363503115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>events</t>
+          <t>beauty</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008008837337752003</v>
+        <v>0.0077867350677904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>beauty</t>
+          <t>tale</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00782472613458529</v>
+        <v>0.007420300476364969</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>brings</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007640614931418577</v>
+        <v>0.007420300476364969</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>enjoyable</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007456503728251864</v>
+        <v>0.007328691828508612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>paul</t>
+          <t>memorable</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007364448126668508</v>
+        <v>0.007237083180652254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>powerful</t>
+          <t>season</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007364448126668508</v>
+        <v>0.007145474532795896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>york</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>78</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007180336923501795</v>
+        <v>0.007145474532795896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>superb</t>
+          <t>fantastic</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007088281321918439</v>
+        <v>0.007053865884939539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>perfectly</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00681211451716837</v>
+        <v>0.007053865884939539</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>greatest</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006720058915585013</v>
+        <v>0.007053865884939539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006535947712418301</v>
+        <v>0.006870648589226823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>portrayed</t>
+          <t>perfectly</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006535947712418301</v>
+        <v>0.006870648589226823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>masterpiece</t>
+          <t>powerful</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006535947712418301</v>
+        <v>0.006779039941370466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>german</t>
+          <t>journey</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006535947712418301</v>
+        <v>0.006687431293514108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>believable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006535947712418301</v>
+        <v>0.006687431293514108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>season</t>
+          <t>century</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006443892110834944</v>
+        <v>0.006687431293514108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>memorable</t>
+          <t>sweet</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
-        <v>0.006443892110834944</v>
+        <v>0.006687431293514108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>tony</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006351836509251588</v>
+        <v>0.00659582264565775</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>meets</t>
+          <t>masterpiece</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006259780907668232</v>
+        <v>0.006504213997801393</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006259780907668232</v>
+        <v>0.006504213997801393</v>
       </c>
     </row>
     <row r="26">
@@ -3565,2454 +3448,2337 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006167725306084875</v>
+        <v>0.006504213997801393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>oscar</t>
+          <t>realistic</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006075669704501519</v>
+        <v>0.006504213997801393</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>recently</t>
+          <t>awesome</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005983614102918163</v>
+        <v>0.006504213997801393</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>unlike</t>
+          <t>political</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00579950289975145</v>
+        <v>0.006412605349945035</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>fascinating</t>
+          <t>portrayal</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C30" t="n">
-        <v>0.00579950289975145</v>
+        <v>0.006412605349945035</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>spirit</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00579950289975145</v>
+        <v>0.006412605349945035</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>battle</t>
+          <t>greatest</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005707447298168094</v>
+        <v>0.006320996702088677</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>escape</t>
+          <t>outstanding</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>0.005615391696584737</v>
+        <v>0.006320996702088677</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>0.005615391696584737</v>
+        <v>0.006320996702088677</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>rare</t>
+          <t>lovely</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005523336095001381</v>
+        <v>0.00622938805423232</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>south</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C36" t="n">
-        <v>0.005431280493418024</v>
+        <v>0.00622938805423232</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>romance</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
-        <v>0.005431280493418024</v>
+        <v>0.00622938805423232</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>business</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005339224891834668</v>
+        <v>0.006137779406375962</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>portrayal</t>
+          <t>romance</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C39" t="n">
-        <v>0.005339224891834668</v>
+        <v>0.005954562110663247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>sweet</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C40" t="n">
-        <v>0.005339224891834668</v>
+        <v>0.005862953462806889</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>pace</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C41" t="n">
-        <v>0.005247169290251312</v>
+        <v>0.005771344814950531</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>available</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005247169290251312</v>
+        <v>0.005679736167094174</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>japanese</t>
+          <t>keeps</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C43" t="n">
-        <v>0.005247169290251312</v>
+        <v>0.005679736167094174</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ford</t>
+          <t>recently</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44" t="n">
-        <v>0.005247169290251312</v>
+        <v>0.005588127519237816</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>gem</t>
+          <t>co</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C45" t="n">
-        <v>0.005247169290251312</v>
+        <v>0.005588127519237816</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>twists</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C46" t="n">
-        <v>0.005155113688667955</v>
+        <v>0.005496518871381458</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>era</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005155113688667955</v>
+        <v>0.005496518871381458</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>stunning</t>
+          <t>noir</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005155113688667955</v>
+        <v>0.005496518871381458</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>awesome</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005063058087084599</v>
+        <v>0.005496518871381458</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>creepy</t>
+          <t>thanks</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>0.005063058087084599</v>
+        <v>0.005496518871381458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>brings</t>
+          <t>pace</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005063058087084599</v>
+        <v>0.005496518871381458</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>disturbing</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C52" t="n">
-        <v>0.005063058087084599</v>
+        <v>0.005404910223525101</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>create</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C53" t="n">
-        <v>0.005063058087084599</v>
+        <v>0.005404910223525101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>edge</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>0.004971002485501243</v>
+        <v>0.005313301575668743</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>interested</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C55" t="n">
-        <v>0.004971002485501243</v>
+        <v>0.005313301575668743</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>charles</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C56" t="n">
-        <v>0.004878946883917886</v>
+        <v>0.005313301575668743</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>william</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C57" t="n">
-        <v>0.004878946883917886</v>
+        <v>0.005221692927812385</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>impressive</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>0.004878946883917886</v>
+        <v>0.005221692927812385</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>victoria</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>0.004878946883917886</v>
+        <v>0.005221692927812385</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>images</t>
+          <t>longer</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C60" t="n">
-        <v>0.004878946883917886</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>outstanding</t>
+          <t>west</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004878946883917886</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>journey</t>
+          <t>london</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C62" t="n">
-        <v>0.004878946883917886</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>jane</t>
+          <t>paris</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C63" t="n">
-        <v>0.004878946883917886</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>south</t>
+          <t>society</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C64" t="n">
-        <v>0.00478689128233453</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>touching</t>
+          <t>terrific</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C65" t="n">
-        <v>0.00478689128233453</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>bond</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00478689128233453</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>band</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00478689128233453</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>exciting</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C68" t="n">
-        <v>0.004694835680751174</v>
+        <v>0.005130084279956028</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>disney</t>
+          <t>dramatic</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004694835680751174</v>
+        <v>0.00503847563209967</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>humour</t>
+          <t>touch</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C70" t="n">
-        <v>0.004694835680751174</v>
+        <v>0.00503847563209967</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>towards</t>
+          <t>familiar</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C71" t="n">
-        <v>0.004694835680751174</v>
+        <v>0.00503847563209967</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>beautifully</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C72" t="n">
-        <v>0.004694835680751174</v>
+        <v>0.00503847563209967</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>emotions</t>
+          <t>dance</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C73" t="n">
-        <v>0.004694835680751174</v>
+        <v>0.00503847563209967</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>former</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C74" t="n">
-        <v>0.004694835680751174</v>
+        <v>0.00503847563209967</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>marriage</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C75" t="n">
-        <v>0.004602780079167817</v>
+        <v>0.00503847563209967</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>chris</t>
+          <t>older</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C76" t="n">
-        <v>0.004602780079167817</v>
+        <v>0.004946866984243312</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>copy</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C77" t="n">
-        <v>0.004602780079167817</v>
+        <v>0.004946866984243312</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>remarkable</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C78" t="n">
-        <v>0.004602780079167817</v>
+        <v>0.004946866984243312</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>park</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C79" t="n">
-        <v>0.004602780079167817</v>
+        <v>0.004855258336386955</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>values</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C80" t="n">
-        <v>0.004602780079167817</v>
+        <v>0.004855258336386955</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C81" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004855258336386955</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>tragedy</t>
+          <t>solid</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C82" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004855258336386955</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>thus</t>
+          <t>moves</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C83" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004855258336386955</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>tone</t>
+          <t>batman</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C84" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004763649688530597</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>subtle</t>
+          <t>touching</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C85" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004763649688530597</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>animated</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C86" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004763649688530597</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>aspect</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C87" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004763649688530597</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>magic</t>
+          <t>tony</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C88" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004763649688530597</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>beautifully</t>
+          <t>subtle</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.004763649688530597</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>silent</t>
+          <t>jeff</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C90" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.00467204104067424</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>secret</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C91" t="n">
-        <v>0.004510724477584461</v>
+        <v>0.00467204104067424</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>honest</t>
+          <t>u</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C92" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.00467204104067424</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>plenty</t>
+          <t>powell</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C93" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.00467204104067424</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>ultimately</t>
+          <t>plenty</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C94" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.00467204104067424</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>remains</t>
+          <t>died</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C95" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.00467204104067424</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>thanks</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C96" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.004580432392817882</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>company</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C97" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.004580432392817882</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>genius</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C98" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.004580432392817882</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>unlike</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C99" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.004580432392817882</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>prince</t>
+          <t>leaving</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C100" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.004580432392817882</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>drive</t>
+          <t>master</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C101" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.004488823744961524</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>award</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C102" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.004488823744961524</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>friendship</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C103" t="n">
-        <v>0.004418668876001105</v>
+        <v>0.004488823744961524</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>pure</t>
+          <t>fresh</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C104" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004488823744961524</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>wonderfully</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C105" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004488823744961524</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>innocent</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004488823744961524</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>older</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C107" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004488823744961524</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>trip</t>
+          <t>dancing</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C108" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004488823744961524</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>paris</t>
+          <t>tension</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C109" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C110" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>feelings</t>
+          <t>personally</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C111" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>pictures</t>
+          <t>surprisingly</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C112" t="n">
-        <v>0.004326613274417748</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>images</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>returns</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>hitchcock</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C115" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>follows</t>
+          <t>frank</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C116" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>fairly</t>
+          <t>law</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>daniel</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C118" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>emotion</t>
+          <t>details</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C119" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004397215097105167</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>festival</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C120" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C121" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>planet</t>
+          <t>large</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C122" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>stewart</t>
+          <t>follows</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C123" t="n">
-        <v>0.004234557672834392</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>drawn</t>
+          <t>return</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C124" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>reminded</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C125" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>fascinating</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C126" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>loves</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C127" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>dreams</t>
+          <t>tough</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C128" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004305606449248809</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>studio</t>
+          <t>key</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C129" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>kelly</t>
+          <t>singing</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C130" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>detective</t>
+          <t>remarkable</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C131" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>touch</t>
+          <t>trip</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C132" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C133" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>mad</t>
+          <t>indian</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C134" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>born</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C135" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>mary</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C136" t="n">
-        <v>0.004142502071251036</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>photography</t>
+          <t>club</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C137" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004213997801392451</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>natural</t>
+          <t>lived</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C138" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>moves</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>suddenly</t>
+          <t>wild</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C141" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>married</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>moral</t>
+          <t>natural</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>adds</t>
+          <t>wonderfully</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>forever</t>
+          <t>adds</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>animated</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C146" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>hurt</t>
+          <t>funniest</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
-        <v>0.004050446469667679</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>sees</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>lovely</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>gandhi</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>struggle</t>
+          <t>depth</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C151" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004122389153536094</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>g</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C152" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>impressed</t>
+          <t>critics</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C153" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>marriage</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C154" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>jim</t>
+          <t>german</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C155" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>feelings</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C156" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C157" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>johnny</t>
+          <t>mysterious</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C158" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>noir</t>
+          <t>tone</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C159" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>starring</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C160" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>emotions</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C161" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>likable</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C162" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>collection</t>
+          <t>ride</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C163" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.004030780505679736</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>stunning</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>43</v>
       </c>
       <c r="C164" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>childhood</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>43</v>
       </c>
       <c r="C165" t="n">
-        <v>0.003958390868084323</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>mainly</t>
+          <t>literally</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C166" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>singing</t>
+          <t>impressed</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C167" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>anna</t>
+          <t>places</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C168" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>changed</t>
+          <t>equally</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C169" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>office</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C170" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>jean</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C171" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>sees</t>
+          <t>festival</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C172" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>ride</t>
+          <t>heavy</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C173" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>terrific</t>
+          <t>tears</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C174" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>tears</t>
+          <t>gem</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C175" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003939171857823378</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>knowing</t>
+          <t>amusing</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>42</v>
       </c>
       <c r="C176" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>returns</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>42</v>
       </c>
       <c r="C177" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>ray</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>42</v>
       </c>
       <c r="C178" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>double</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>42</v>
       </c>
       <c r="C179" t="n">
-        <v>0.003866335266500967</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>stands</t>
+          <t>n</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C180" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C181" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>everybody</t>
+          <t>jim</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C182" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>died</t>
+          <t>thank</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C183" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>violent</t>
+          <t>filled</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C184" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>inspired</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C185" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C186" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003847563209967021</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>comedies</t>
+          <t>chris</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>41</v>
       </c>
       <c r="C187" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>41</v>
       </c>
       <c r="C188" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>central</t>
+          <t>lucy</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>41</v>
       </c>
       <c r="C189" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>minor</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>41</v>
       </c>
       <c r="C190" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>brian</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>41</v>
       </c>
       <c r="C191" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>soul</t>
+          <t>knowing</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>41</v>
       </c>
       <c r="C192" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>involving</t>
+          <t>soldiers</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>41</v>
       </c>
       <c r="C193" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>equally</t>
+          <t>comedic</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>41</v>
       </c>
       <c r="C194" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>joan</t>
+          <t>costumes</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>41</v>
       </c>
       <c r="C195" t="n">
-        <v>0.00377427966491761</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>force</t>
+          <t>situations</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C196" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>details</t>
+          <t>common</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C197" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>spirit</t>
+          <t>appearance</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C198" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>martin</t>
+          <t>becoming</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C199" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>conclusion</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C200" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C201" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>minor</t>
+          <t>project</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C202" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>solid</t>
+          <t>soul</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C203" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C204" t="n">
-        <v>0.003682224063334254</v>
+        <v>0.003755954562110663</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>albert</t>
+          <t>danny</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>40</v>
       </c>
       <c r="C205" t="n">
-        <v>0.003682224063334254</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>lynch</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>40</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.003682224063334254</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>charming</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>40</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.003682224063334254</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>runs</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>40</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.003682224063334254</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>missing</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>40</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.003682224063334254</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>dancing</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>40</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.003682224063334254</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>favourite</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>39</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.003590168461750897</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>mood</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>39</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.003590168461750897</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>bruce</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>39</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.003590168461750897</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>freedom</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>39</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.003590168461750897</v>
+        <v>0.003664345914254306</v>
       </c>
     </row>
   </sheetData>
